--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\java\org\iti\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04293D2-4037-457F-92B9-E88F1A027191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2C52E-B7E1-43FB-B7B7-6C6448DEDFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>rtss59@gmail.com</t>
+    <t>ghhhh159@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2C52E-B7E1-43FB-B7B7-6C6448DEDFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D103BB2-8BEB-4B73-9217-207B56A9D6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>ghhhh159@gmail.com</t>
+    <t>ahmedrrrrr@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D103BB2-8BEB-4B73-9217-207B56A9D6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E4240E-89A3-4F22-A7E7-2A28BEC297D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>ahmedrrrrr@gmail.com</t>
+    <t>ahmedmedhat_d0d@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{C365D388-4E1C-4B8B-BB0C-C741F066D5F3}"/>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{002EE7C7-8433-489A-B910-75F470868653}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E4240E-89A3-4F22-A7E7-2A28BEC297D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996883C-7144-4D18-8FFA-685A070CA0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>ahmedmedhat_d0d@gmail.com</t>
+    <t>ahmedmedhatt_d0d@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996883C-7144-4D18-8FFA-685A070CA0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971AA818-81A7-4AE3-B9B2-56686574FA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,16 +39,16 @@
     <t>1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>1985</t>
   </si>
   <si>
     <t>5489920</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ahmedmedhatt_d0d@gmail.com</t>
+    <t>ahmeeeedddddd159@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -94,18 +93,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,15 +388,15 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22" style="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,39 +406,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{002EE7C7-8433-489A-B910-75F470868653}"/>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{2BF1398A-3911-4C41-8944-C443BFF7A4B9}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD79AC3-5135-434E-BAE8-B6E4FA920362}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971AA818-81A7-4AE3-B9B2-56686574FA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1E4D1-002B-45B4-AA31-1D2CAEA02360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>5489920</t>
   </si>
   <si>
-    <t>ahmeeeedddddd159@gmail.com</t>
+    <t>ahmedmedhat@testautomation.com</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1E4D1-002B-45B4-AA31-1D2CAEA02360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB7EDF-1CF7-4F58-B170-5EA2EAFF41D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -48,7 +59,7 @@
     <t>5489920</t>
   </si>
   <si>
-    <t>ahmedmedhat@testautomation.com</t>
+    <t>ahmed.medhat@testautomation.com</t>
   </si>
 </sst>
 </file>
@@ -387,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,4 +439,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8254F2-6D4B-4451-94AD-A136E8A12159}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>RegistrationData!G1</f>
+        <v>ahmed.medhat@testautomation.com</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE("'",RegistrationData!H1)</f>
+        <v>'5489920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB7EDF-1CF7-4F58-B170-5EA2EAFF41D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0404756-B52D-4EAF-A781-5D7AD05DA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>5489920</t>
   </si>
   <si>
-    <t>ahmed.medhat@testautomation.com</t>
+    <t>ahmed.medhat1@testautomation.com</t>
   </si>
 </sst>
 </file>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8254F2-6D4B-4451-94AD-A136E8A12159}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -458,7 +458,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>RegistrationData!G1</f>
-        <v>ahmed.medhat@testautomation.com</v>
+        <v>ahmed.medhat1@testautomation.com</v>
       </c>
       <c r="B1" t="str">
         <f>CONCATENATE("'",RegistrationData!H1)</f>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0404756-B52D-4EAF-A781-5D7AD05DA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686239E-3851-4DA3-9E66-32D8B95C1C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -47,19 +50,16 @@
     <t>medhat</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>5489920</t>
-  </si>
-  <si>
-    <t>ahmed.medhat1@testautomation.com</t>
+    <t>15999999</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>hggmnnbnkhghahmed@jhjhjjh.com</t>
   </si>
 </sst>
 </file>
@@ -104,17 +104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,7 +392,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,35 +400,35 @@
     <col min="7" max="7" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{2BF1398A-3911-4C41-8944-C443BFF7A4B9}"/>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{6CA6C7B5-3028-4A08-81C8-801698342BA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -456,13 +449,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>RegistrationData!G1</f>
-        <v>ahmed.medhat1@testautomation.com</v>
-      </c>
-      <c r="B1" t="str">
-        <f>CONCATENATE("'",RegistrationData!H1)</f>
-        <v>'5489920</v>
+      <c r="A1" t="e">
+        <f>RegistrationData!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B1" t="e">
+        <f>CONCATENATE("'",RegistrationData!#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,37 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686239E-3851-4DA3-9E66-32D8B95C1C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A1B9A-3283-4A04-95BB-3A6DAFB0A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
+    <sheet name="RegistrationData" sheetId="2" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ahmedmedhat00@automation.com</t>
+  </si>
+  <si>
+    <t>15999999</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>male</t>
@@ -50,16 +67,10 @@
     <t>medhat</t>
   </si>
   <si>
-    <t>15999999</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>hggmnnbnkhghahmed@jhjhjjh.com</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1900</t>
   </si>
 </sst>
 </file>
@@ -110,8 +121,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ارتباط تشعبي" xfId="1" builtinId="8"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,77 +399,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6EEFC-A966-4BA4-ADD0-CF9C75EFEEF6}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{6CA6C7B5-3028-4A08-81C8-801698342BA9}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{46892EB9-2704-408F-BD14-00CB41D01E9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8254F2-6D4B-4451-94AD-A136E8A12159}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
-        <f>RegistrationData!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B1" t="e">
-        <f>CONCATENATE("'",RegistrationData!#REF!)</f>
-        <v>#REF!</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{570FB913-255A-429E-9F4B-E1D846EA5A32}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A1B9A-3283-4A04-95BB-3A6DAFB0A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCDE0B2-F3C6-491C-8CDF-88A16BFF0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="2" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>ahmedmedhat00@automation.com</t>
-  </si>
-  <si>
     <t>15999999</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>1900</t>
+  </si>
+  <si>
+    <t>ahmedmedhat@automation.com</t>
   </si>
 </sst>
 </file>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6EEFC-A966-4BA4-ADD0-CF9C75EFEEF6}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,22 +417,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -443,28 +443,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,15 +499,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{570FB913-255A-429E-9F4B-E1D846EA5A32}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{993BD903-763F-41FE-8D7E-E2C8D9BD460A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automationFramework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCDE0B2-F3C6-491C-8CDF-88A16BFF0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E29BE7-5186-4EC7-AEFD-3712946137E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>1900</t>
   </si>
   <si>
-    <t>ahmedmedhat@automation.com</t>
+    <t>ahmed_medhat1@automation.com</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6EEFC-A966-4BA4-ADD0-CF9C75EFEEF6}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +469,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{46892EB9-2704-408F-BD14-00CB41D01E9C}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9A79F043-9D2A-4A8D-A90B-EE94DA0C76FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -507,7 +507,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{993BD903-763F-41FE-8D7E-E2C8D9BD460A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E32D4696-D9AB-4D6C-A64E-3AC2C0EC5675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
